--- a/reports/batch_report.xlsx
+++ b/reports/batch_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>banco</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>rows</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ocr_used</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>output</t>
         </is>
@@ -463,132 +468,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Banco Patagonia Robot 2025-06.pdf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>35</v>
-      </c>
-      <c r="C2" t="b">
+          <t>MES JUNIO 2025.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MES JUNIO 2025</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+      <c r="D2" t="b">
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Banco Patagonia Robot 2025-06.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ENERO 2025.pdf</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>EMPTY</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>FLA - Julio 2025.pdf</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FLA - Julio 2025.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MES JUNIO 2025.pdf</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MES MAYO 2025.pdf</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>172</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MES MAYO 2025.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>San Juan Robot 2025-05 (1).pdf</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>San Juan Robot 2025-05 (1).xlsx</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
